--- a/apifile/radio.xlsx
+++ b/apifile/radio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954DE67-9CBD-48D2-BA30-65A3F0E6EA2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197F2A3-B7E8-40CF-BCCA-CE47F57114F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playlist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playlist/5ef9572bdcfe1c0008188088</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>根据歌单ID获取歌曲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,19 +81,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deviceId=729000855414521856&amp;pageNum=1&amp;pageSize=20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/musicList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -120,85 +100,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>文件广播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除歌单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止广播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节音量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/record</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/musicList</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/playlist</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/playlist/5f07c404e8f1c70008553abf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId=773943179076157440&amp;pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此id为对讲机id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/playFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-	"deviceIds": ["719573907100286976"],
-	"musicName": "说好不哭.mp3"
+	"deviceIds": ["730445452226019328"],
+	"musicName": "李克勤-花街的流星.mp3"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件广播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "deviceIds": [
-    "719573907100286976"
-  ],
-  "number": 1,
-  "speed": 1,
-  "text": "hhhhhhh"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playFile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本广播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playlist/testnewadd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playlist/5f290549553c030008290662/palylist1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/playlist/www</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除歌单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/stop?deviceIds=719573907100286976</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止广播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/radio/volume?deviceIds=719573907100286976&amp;volume=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调节音量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
+    <t>http://island.iot-cas.com:8081/island/radio/playlist/testnewadd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/playlist/5f07c404e8f1c70008553abf/歌单1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/stop?deviceIds=730445452226019328</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/radio/volume?deviceIds=730445452226019328&amp;volume=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,16 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="86.875" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
     <col min="6" max="6" width="76" customWidth="1"/>
     <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
@@ -606,10 +584,10 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -618,15 +596,15 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -635,21 +613,24 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -658,55 +639,52 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>200</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -714,16 +692,16 @@
       <c r="E7" s="4">
         <v>200</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -731,16 +709,16 @@
       <c r="E8" s="4">
         <v>200</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -749,15 +727,15 @@
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -766,15 +744,15 @@
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
+      <c r="A11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -783,42 +761,24 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>200</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{958169BB-12F7-40C4-B0EE-006635156765}"/>
+    <hyperlink ref="A7" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/radio/playlist" xr:uid="{958169BB-12F7-40C4-B0EE-006635156765}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{1B003372-8298-485B-9454-F8C3E2CDF05C}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{0C7B06B0-A115-48DC-8238-A4411FA1612E}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{F28415EA-FE12-443E-9DBC-7AFF3F44BF16}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{0F0DEDC8-9071-4B4E-82B9-0ED80628A457}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{EB6DA9ED-E391-4D37-9A27-566BBC903306}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{24C0F628-72F5-44AD-A798-F5DD08F035DC}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{591AD93F-AF73-497F-BCCC-23903355650F}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{70D42A59-ADC0-421D-AFF2-2A42493DEDFB}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{48CFA08F-0DED-4BAD-910D-3592B4D16EE3}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{7FAFD62D-293D-42F1-83DE-E247F3DB6525}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/radio/record" xr:uid="{0C7B06B0-A115-48DC-8238-A4411FA1612E}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/radio/musicList" xr:uid="{F28415EA-FE12-443E-9DBC-7AFF3F44BF16}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{EB6DA9ED-E391-4D37-9A27-566BBC903306}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{24C0F628-72F5-44AD-A798-F5DD08F035DC}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{591AD93F-AF73-497F-BCCC-23903355650F}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{70D42A59-ADC0-421D-AFF2-2A42493DEDFB}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{48CFA08F-0DED-4BAD-910D-3592B4D16EE3}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{7FAFD62D-293D-42F1-83DE-E247F3DB6525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>